--- a/doc/rede-cnpj-v03-drop teste.xlsx
+++ b/doc/rede-cnpj-v03-drop teste.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB9792-BF27-4C53-B246-26C16D9F43E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\rede\versoes\rede-versoes anteriores\rede-sqlite-py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6638A1C7-9449-4981-8BE8-259CB55645B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="-15870" windowWidth="20460" windowHeight="11475" tabRatio="727" firstSheet="3" activeTab="11" xr2:uid="{EA1E23E0-B846-429A-B8D4-BC0C724164ED}"/>
+    <workbookView xWindow="5670" yWindow="-15960" windowWidth="20715" windowHeight="13830" tabRatio="727" xr2:uid="{EA1E23E0-B846-429A-B8D4-BC0C724164ED}"/>
   </bookViews>
   <sheets>
     <sheet name="observação" sheetId="24" r:id="rId1"/>
@@ -38,6 +43,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="156">
   <si>
     <t>A1</t>
   </si>
@@ -513,9 +519,6 @@
   </si>
   <si>
     <t>As células nas planilhas a seguir podem ser arrastadas para a tela da rede-cnpj</t>
-  </si>
-  <si>
-    <t>se for colocado +Texto1, o texto será adicionado sem apagar a nota já existente</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635F041E-9B88-4E5E-AD0B-8A61F9555876}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,7 +1831,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1916,8 +1918,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2073,8 +2074,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC8333B-FEA7-43B5-82F3-56D24B96AFA2}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,9 +2185,6 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2222,8 +2219,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2231,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8F5025-9E8A-4C27-9ED9-20B580E06F78}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2316,8 +2312,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2662,8 +2657,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2804,8 +2798,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2976,8 +2969,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3153,8 +3145,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3200,7 +3191,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3341,8 +3331,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3437,8 +3426,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3526,8 +3514,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3615,8 +3602,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3704,8 +3690,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3713,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856EDCEC-C33F-442E-A0CB-6DE4C86B0205}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3778,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>